--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28620" windowHeight="14700"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Дата</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Телефон</t>
   </si>
   <si>
-    <t>4705</t>
-  </si>
-  <si>
     <t>сухинина елена георгиевна</t>
   </si>
   <si>
@@ -50,15 +47,6 @@
   </si>
   <si>
     <t>380000000</t>
-  </si>
-  <si>
-    <t>Такой формат файла будет.</t>
-  </si>
-  <si>
-    <t>И ещё поле добавить «Дата сбора заказа»</t>
-  </si>
-  <si>
-    <t>Телефон обновлять</t>
   </si>
 </sst>
 </file>
@@ -121,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -133,6 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,27 +467,25 @@
       <c r="A2" s="6">
         <v>42816</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
+      <c r="B2" s="9">
+        <v>4705</v>
       </c>
       <c r="C2" s="1">
         <v>3360</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -636,14 +623,10 @@
       <c r="G17" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,146 +487,11 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
+      <c r="C8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -43,10 +43,10 @@
     <t>Новая почта</t>
   </si>
   <si>
-    <t>аддддддд</t>
-  </si>
-  <si>
     <t>380000000</t>
+  </si>
+  <si>
+    <t>Комсомольск</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +480,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="7"/>
     </row>

--- a/import.xlsx
+++ b/import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,102 @@
   </si>
   <si>
     <t>Комсомольск</t>
+  </si>
+  <si>
+    <t>380000001</t>
+  </si>
+  <si>
+    <t>380000002</t>
+  </si>
+  <si>
+    <t>380000003</t>
+  </si>
+  <si>
+    <t>380000004</t>
+  </si>
+  <si>
+    <t>380000005</t>
+  </si>
+  <si>
+    <t>380000006</t>
+  </si>
+  <si>
+    <t>380000007</t>
+  </si>
+  <si>
+    <t>380000008</t>
+  </si>
+  <si>
+    <t>380000009</t>
+  </si>
+  <si>
+    <t>380000010</t>
+  </si>
+  <si>
+    <t>380000011</t>
+  </si>
+  <si>
+    <t>380000012</t>
+  </si>
+  <si>
+    <t>380000013</t>
+  </si>
+  <si>
+    <t>380000014</t>
+  </si>
+  <si>
+    <t>380000015</t>
+  </si>
+  <si>
+    <t>380000016</t>
+  </si>
+  <si>
+    <t>380000017</t>
+  </si>
+  <si>
+    <t>380000018</t>
+  </si>
+  <si>
+    <t>380000019</t>
+  </si>
+  <si>
+    <t>380000020</t>
+  </si>
+  <si>
+    <t>380000021</t>
+  </si>
+  <si>
+    <t>380000022</t>
+  </si>
+  <si>
+    <t>380000023</t>
+  </si>
+  <si>
+    <t>380000024</t>
+  </si>
+  <si>
+    <t>380000025</t>
+  </si>
+  <si>
+    <t>380000026</t>
+  </si>
+  <si>
+    <t>380000027</t>
+  </si>
+  <si>
+    <t>380000028</t>
+  </si>
+  <si>
+    <t>380000029</t>
+  </si>
+  <si>
+    <t>380000030</t>
+  </si>
+  <si>
+    <t>380000031</t>
+  </si>
+  <si>
+    <t>380000032</t>
   </si>
 </sst>
 </file>
@@ -71,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,22 +190,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -117,10 +202,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -423,16 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" style="4" customWidth="1"/>
@@ -440,7 +521,7 @@
     <col min="7" max="7" width="26.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,11 +544,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>42816</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>4705</v>
       </c>
       <c r="C2" s="1">
@@ -485,13 +566,742 @@
       <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>42817</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4706</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>42818</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4707</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42819</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4708</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>42820</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4709</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>42821</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4710</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>42822</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4711</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>42823</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4712</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>42824</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4713</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>42825</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4714</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>42826</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4715</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>42827</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4716</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>42828</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4717</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>42829</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4718</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>42830</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4719</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>42831</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4720</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>42832</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4721</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>42833</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4722</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>42834</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4723</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>42835</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4724</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>42836</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4725</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42837</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4726</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42838</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4727</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>42839</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4728</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>42840</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4729</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42841</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4730</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>42842</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4731</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>42843</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4732</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>42844</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4733</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>42845</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4734</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>42846</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4735</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>42847</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4736</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>42848</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4737</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3360</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="45">
   <si>
     <t>Дата</t>
   </si>
@@ -46,9 +46,6 @@
     <t>380000000</t>
   </si>
   <si>
-    <t>Комсомольск</t>
-  </si>
-  <si>
     <t>380000001</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>380000032</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Кременчуг</t>
+  </si>
+  <si>
+    <t>Одесса</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
@@ -584,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,10 +705,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,10 +774,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,10 +866,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,10 +1119,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,10 +1165,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,10 +1188,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1228,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,10 +1257,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
